--- a/manuscript/tables/S3_gene_mapping.xlsx
+++ b/manuscript/tables/S3_gene_mapping.xlsx
@@ -4042,7 +4042,7 @@
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
